--- a/telegram.xlsx
+++ b/telegram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="8430" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="8430"/>
   </bookViews>
   <sheets>
     <sheet name="рассылка в группы" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="334">
   <si>
     <t>группы</t>
   </si>
@@ -856,54 +856,9 @@
     <t>proxy</t>
   </si>
   <si>
-    <t>193.124.191.101:8000</t>
-  </si>
-  <si>
-    <t>45.11.127.161:8000</t>
-  </si>
-  <si>
-    <t>45.9.40.99:8000</t>
-  </si>
-  <si>
-    <t>185.148.27.225:8000</t>
-  </si>
-  <si>
-    <t>194.67.200.31:8000</t>
-  </si>
-  <si>
     <t>185.148.27.98:8000</t>
   </si>
   <si>
-    <t>194.67.202.31:8000</t>
-  </si>
-  <si>
-    <t>168.80.1.127:8000</t>
-  </si>
-  <si>
-    <t>45.81.77.172:8000</t>
-  </si>
-  <si>
-    <t>168.81.59.19:8000</t>
-  </si>
-  <si>
-    <t>91.198.208.57:8000</t>
-  </si>
-  <si>
-    <t>194.93.27.68:8000</t>
-  </si>
-  <si>
-    <t>5.101.87.97:8000</t>
-  </si>
-  <si>
-    <t>84.21.161.224:8000</t>
-  </si>
-  <si>
-    <t>213.232.70.78:8000</t>
-  </si>
-  <si>
-    <t>85.115.200.212:8000</t>
-  </si>
-  <si>
     <t>79582452199</t>
   </si>
   <si>
@@ -1063,10 +1018,13 @@
     <t>neworkyiv</t>
   </si>
   <si>
-    <t>привет всем</t>
-  </si>
-  <si>
-    <t>380954320181</t>
+    <t>mention_group_members</t>
+  </si>
+  <si>
+    <t>79912327295</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1516,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1537,7 +1495,7 @@
         <v>276</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>273</v>
@@ -1545,21 +1503,19 @@
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>282</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="B2" s="25"/>
       <c r="C2" s="2" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1569,257 +1525,257 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="10" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="10" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="10" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="10" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="10" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="10" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="10" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="10" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="10" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="10" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="10" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="10" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="10" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="10" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="10" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="10" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="10" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="10" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="10" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="10" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="10" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="10" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="10" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="10" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="10" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="10" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="10" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="10" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="10" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="10" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="10" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="10" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="10" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="10" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="10" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="10" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="10" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="10" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="10" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -1860,10 +1816,10 @@
         <v>272</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>274</v>
@@ -2300,10 +2256,10 @@
     </row>
     <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>272</v>
@@ -3493,10 +3449,10 @@
         <v>272</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3509,16 +3465,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="11" customWidth="1"/>
+    <col min="1" max="4" width="14" style="11" customWidth="1"/>
     <col min="5" max="8" width="11.7109375" style="11"/>
     <col min="9" max="9" width="20.42578125" style="11" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" style="11" customWidth="1"/>
@@ -3551,13 +3504,16 @@
       <c r="G1" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>103</v>
       </c>
       <c r="L1" s="11" t="s">
@@ -3598,17 +3554,17 @@
       <c r="H2" s="23">
         <v>1</v>
       </c>
-      <c r="I2" s="22">
-        <v>5</v>
+      <c r="I2" s="23">
+        <v>1</v>
       </c>
       <c r="J2" s="22">
-        <v>380</v>
+        <v>1</v>
+      </c>
+      <c r="K2" s="22">
+        <v>7</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="P2" s="14" t="s">
         <v>19</v>
@@ -3628,9 +3584,6 @@
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
-      <c r="O3" s="11" t="s">
-        <v>278</v>
-      </c>
       <c r="P3" s="14" t="s">
         <v>20</v>
       </c>
@@ -3639,9 +3592,6 @@
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="O4" s="11" t="s">
-        <v>279</v>
-      </c>
       <c r="P4" s="14" t="s">
         <v>21</v>
       </c>
@@ -3650,9 +3600,6 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="O5" s="11" t="s">
-        <v>280</v>
-      </c>
       <c r="P5" s="14" t="s">
         <v>22</v>
       </c>
@@ -3661,9 +3608,6 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="O6" s="11" t="s">
-        <v>281</v>
-      </c>
       <c r="P6" s="14" t="s">
         <v>23</v>
       </c>
@@ -3672,9 +3616,6 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="O7" s="11" t="s">
-        <v>282</v>
-      </c>
       <c r="P7" s="14" t="s">
         <v>24</v>
       </c>
@@ -3683,9 +3624,6 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="O8" s="11" t="s">
-        <v>283</v>
-      </c>
       <c r="P8" s="14" t="s">
         <v>25</v>
       </c>
@@ -3694,9 +3632,6 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="O9" s="11" t="s">
-        <v>284</v>
-      </c>
       <c r="P9" s="14" t="s">
         <v>26</v>
       </c>
@@ -3705,9 +3640,6 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="O10" s="11" t="s">
-        <v>285</v>
-      </c>
       <c r="P10" s="14" t="s">
         <v>27</v>
       </c>
@@ -3716,9 +3648,6 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="O11" s="11" t="s">
-        <v>286</v>
-      </c>
       <c r="P11" s="14" t="s">
         <v>28</v>
       </c>
@@ -3727,9 +3656,6 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="O12" s="11" t="s">
-        <v>287</v>
-      </c>
       <c r="P12" s="14" t="s">
         <v>29</v>
       </c>
@@ -3738,9 +3664,6 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="O13" s="11" t="s">
-        <v>288</v>
-      </c>
       <c r="P13" s="14" t="s">
         <v>30</v>
       </c>
@@ -3749,9 +3672,6 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="O14" s="11" t="s">
-        <v>289</v>
-      </c>
       <c r="P14" s="14" t="s">
         <v>31</v>
       </c>
@@ -3760,9 +3680,6 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="O15" s="11" t="s">
-        <v>290</v>
-      </c>
       <c r="P15" s="14" t="s">
         <v>32</v>
       </c>
@@ -3771,9 +3688,6 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="O16" s="11" t="s">
-        <v>291</v>
-      </c>
       <c r="P16" s="14" t="s">
         <v>33</v>
       </c>
@@ -3781,10 +3695,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="15:17">
-      <c r="O17" s="11" t="s">
-        <v>292</v>
-      </c>
+    <row r="17" spans="16:17">
       <c r="P17" s="14" t="s">
         <v>34</v>
       </c>
@@ -3792,7 +3703,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="15:17">
+    <row r="18" spans="16:17">
       <c r="P18" s="14" t="s">
         <v>21</v>
       </c>
@@ -3800,7 +3711,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="15:17">
+    <row r="19" spans="16:17">
       <c r="P19" s="14" t="s">
         <v>35</v>
       </c>
@@ -3808,7 +3719,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="15:17">
+    <row r="20" spans="16:17">
       <c r="P20" s="14" t="s">
         <v>36</v>
       </c>
@@ -3816,7 +3727,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="15:17">
+    <row r="21" spans="16:17">
       <c r="P21" s="14" t="s">
         <v>37</v>
       </c>
@@ -3824,7 +3735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="15:17">
+    <row r="22" spans="16:17">
       <c r="P22" s="14" t="s">
         <v>29</v>
       </c>
@@ -3832,7 +3743,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="15:17">
+    <row r="23" spans="16:17">
       <c r="P23" s="14" t="s">
         <v>38</v>
       </c>
@@ -3840,7 +3751,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="15:17">
+    <row r="24" spans="16:17">
       <c r="P24" s="14" t="s">
         <v>39</v>
       </c>
@@ -3848,7 +3759,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="15:17">
+    <row r="25" spans="16:17">
       <c r="P25" s="14" t="s">
         <v>40</v>
       </c>
@@ -3856,7 +3767,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="15:17">
+    <row r="26" spans="16:17">
       <c r="P26" s="14" t="s">
         <v>41</v>
       </c>
@@ -3864,7 +3775,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="15:17">
+    <row r="27" spans="16:17">
       <c r="P27" s="14" t="s">
         <v>42</v>
       </c>
@@ -3872,7 +3783,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="15:17">
+    <row r="28" spans="16:17">
       <c r="P28" s="14" t="s">
         <v>43</v>
       </c>
@@ -3880,7 +3791,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="15:17">
+    <row r="29" spans="16:17">
       <c r="P29" s="14" t="s">
         <v>44</v>
       </c>
@@ -3888,7 +3799,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="15:17">
+    <row r="30" spans="16:17">
       <c r="P30" s="14" t="s">
         <v>45</v>
       </c>
@@ -3896,7 +3807,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="15:17">
+    <row r="31" spans="16:17">
       <c r="P31" s="14" t="s">
         <v>46</v>
       </c>
@@ -3904,7 +3815,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="15:17">
+    <row r="32" spans="16:17">
       <c r="P32" s="14" t="s">
         <v>47</v>
       </c>

--- a/telegram.xlsx
+++ b/telegram.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="8430"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="8430" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="рассылка в группы" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="333">
   <si>
     <t>группы</t>
   </si>
@@ -1019,9 +1019,6 @@
   </si>
   <si>
     <t>mention_group_members</t>
-  </si>
-  <si>
-    <t>79912327295</t>
   </si>
   <si>
     <t>.</t>
@@ -1474,8 +1471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1507,10 +1504,10 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3465,8 +3462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q180"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75"/>
@@ -3546,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="23">
-        <v>10</v>
+        <v>7200</v>
       </c>
       <c r="G2" s="23">
         <v>1</v>
       </c>
       <c r="H2" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="23">
         <v>1</v>
